--- a/plate_layouts/220622_CRISPRa_fans.xlsx
+++ b/plate_layouts/220622_CRISPRa_fans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\plate_layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\plate_layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AA35F-5DE3-4D65-95FD-ED2E89EC13B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E0867-1B3F-4D69-83A5-332AC4AB2108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21570" yWindow="4560" windowWidth="15915" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -97,6 +97,39 @@
   </si>
   <si>
     <t>leak</t>
+  </si>
+  <si>
+    <t>LH_0</t>
+  </si>
+  <si>
+    <t>LH_1</t>
+  </si>
+  <si>
+    <t>LH_2</t>
+  </si>
+  <si>
+    <t>LH_3</t>
+  </si>
+  <si>
+    <t>lowLH_0</t>
+  </si>
+  <si>
+    <t>lowLH_1</t>
+  </si>
+  <si>
+    <t>highLH_0</t>
+  </si>
+  <si>
+    <t>highLH_1</t>
+  </si>
+  <si>
+    <t>c_1</t>
+  </si>
+  <si>
+    <t>c_0</t>
+  </si>
+  <si>
+    <t>blank</t>
   </si>
 </sst>
 </file>
@@ -417,12 +450,12 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -460,32 +493,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -502,7 +568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -543,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
